--- a/MiniPowerModule.BOM.xlsx
+++ b/MiniPowerModule.BOM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D93287A2-4BE3-4E65-A4C4-F301E6CD7D49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{979446D1-42DF-4507-AD87-E76CF6980723}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10224" windowHeight="10548" xr2:uid="{0034124A-7C03-41C0-AC0D-F85318C6D981}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7884" xr2:uid="{05DDAEEC-D61F-48D5-BEB8-067A82AA1CB6}"/>
   </bookViews>
   <sheets>
     <sheet name="MiniPowerModule.BOM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="109">
   <si>
     <t>Comment</t>
   </si>
@@ -58,13 +58,13 @@
     <t>10uf@50V</t>
   </si>
   <si>
-    <t>C102, C103, C202, C203, C302, C303, C402, C502, C602, C702, C802</t>
+    <t>C102, C103, C202, C203, C302, C303, C402</t>
   </si>
   <si>
     <t>C0603</t>
   </si>
   <si>
-    <t>0.1uf</t>
+    <t>100nf</t>
   </si>
   <si>
     <t>C104, C204, C304</t>
@@ -76,7 +76,19 @@
     <t>C403</t>
   </si>
   <si>
-    <t>180pf</t>
+    <t>150pf</t>
+  </si>
+  <si>
+    <t>C502, C602, C802</t>
+  </si>
+  <si>
+    <t>470nf</t>
+  </si>
+  <si>
+    <t>C702</t>
+  </si>
+  <si>
+    <t>47nf</t>
   </si>
   <si>
     <t>LED</t>
@@ -151,13 +163,13 @@
     <t>Res</t>
   </si>
   <si>
-    <t>R1, R102, R202, R204, R302</t>
+    <t>R1, R102, R202, R204</t>
   </si>
   <si>
     <t>R0603</t>
   </si>
   <si>
-    <t>22K1</t>
+    <t>22K</t>
   </si>
   <si>
     <t>R101</t>
@@ -184,31 +196,37 @@
     <t>R201</t>
   </si>
   <si>
-    <t>121K</t>
+    <t>120K</t>
   </si>
   <si>
     <t>R301</t>
   </si>
   <si>
-    <t>340K</t>
-  </si>
-  <si>
-    <t>R304, R405, R704, R804</t>
+    <t>510K</t>
+  </si>
+  <si>
+    <t>R302</t>
+  </si>
+  <si>
+    <t>33K</t>
+  </si>
+  <si>
+    <t>R304, R405, R502, R704, R804</t>
   </si>
   <si>
     <t>47K</t>
   </si>
   <si>
-    <t>R401</t>
-  </si>
-  <si>
-    <t>169K</t>
+    <t>R401, R501, R801</t>
+  </si>
+  <si>
+    <t>150K</t>
   </si>
   <si>
     <t>R402</t>
   </si>
   <si>
-    <t>13K3</t>
+    <t>12K</t>
   </si>
   <si>
     <t>R403</t>
@@ -217,19 +235,13 @@
     <t>R1210</t>
   </si>
   <si>
-    <t>R501</t>
-  </si>
-  <si>
-    <t>316K</t>
-  </si>
-  <si>
-    <t>R502, R602, R802</t>
-  </si>
-  <si>
-    <t>100K</t>
-  </si>
-  <si>
-    <t>R503, R504, R603, R604, R803</t>
+    <t>R503</t>
+  </si>
+  <si>
+    <t>4.7K</t>
+  </si>
+  <si>
+    <t>R504, R604</t>
   </si>
   <si>
     <t>10K</t>
@@ -238,25 +250,43 @@
     <t>R601</t>
   </si>
   <si>
-    <t>348K</t>
+    <t>240K</t>
+  </si>
+  <si>
+    <t>R602</t>
+  </si>
+  <si>
+    <t>68K</t>
+  </si>
+  <si>
+    <t>R603</t>
+  </si>
+  <si>
+    <t>6.8K</t>
   </si>
   <si>
     <t>R701</t>
   </si>
   <si>
-    <t>147K</t>
+    <t>270K</t>
   </si>
   <si>
     <t>R702, R703</t>
   </si>
   <si>
+    <t>24K</t>
+  </si>
+  <si>
+    <t>R802</t>
+  </si>
+  <si>
     <t>13K</t>
   </si>
   <si>
-    <t>R801</t>
-  </si>
-  <si>
-    <t>1M15</t>
+    <t>R803</t>
+  </si>
+  <si>
+    <t>1K</t>
   </si>
   <si>
     <t>TPS560430</t>
@@ -740,15 +770,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF6A6C0-55D0-4665-8847-ECF6775B0DB1}">
-  <dimension ref="A1:G32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96E171B-5027-4815-9876-C89365635DE5}">
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="1" max="7" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -814,7 +843,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>14</v>
@@ -868,71 +897,71 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="3">
-        <v>9</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -940,13 +969,13 @@
         <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>27</v>
@@ -955,76 +984,76 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F12" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1032,88 +1061,88 @@
         <v>42</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F14" s="3">
         <v>4</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F16" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>54</v>
@@ -1121,19 +1150,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
@@ -1144,22 +1173,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F18" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>58</v>
@@ -1167,19 +1196,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F19" s="3">
         <v>1</v>
@@ -1190,19 +1219,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -1213,45 +1242,45 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="3">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F22" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>66</v>
@@ -1259,22 +1288,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F23" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>68</v>
@@ -1282,42 +1311,42 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F24" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F25" s="3">
         <v>1</v>
@@ -1328,22 +1357,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>74</v>
@@ -1351,22 +1380,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F27" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>76</v>
@@ -1374,19 +1403,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
@@ -1397,93 +1426,208 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="D29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" s="3">
-        <v>3</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="F31" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="E34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="3">
+        <v>3</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="2" t="s">
+      <c r="E35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" s="3">
+        <v>3</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>8</v>
       </c>
     </row>
